--- a/Simulation Plan.xlsx
+++ b/Simulation Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACE36438-6A9D-4715-9F96-A37DCCD934F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{ACE36438-6A9D-4715-9F96-A37DCCD934F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9B51E0-8BEA-4164-9339-25E769AFB30B}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{81477174-054F-4866-A4D7-E995B2979BA1}"/>
+    <workbookView xWindow="384" yWindow="-108" windowWidth="22764" windowHeight="13176" xr2:uid="{81477174-054F-4866-A4D7-E995B2979BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,15 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -455,28 +464,28 @@
   <dimension ref="B3:I11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.7109375" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="46.140625" customWidth="1"/>
+    <col min="5" max="5" width="13.6640625" customWidth="1"/>
+    <col min="6" max="6" width="13.5546875" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="46.109375" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -500,7 +509,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C6">
         <v>1</v>
       </c>
@@ -508,7 +517,7 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -517,7 +526,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C7">
         <f>C6+1</f>
         <v>2</v>
@@ -538,7 +547,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C8">
         <f t="shared" ref="C8:C11" si="0">C7+1</f>
         <v>3</v>
@@ -562,7 +571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -583,7 +592,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -604,7 +613,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
       <c r="C11">
         <f t="shared" si="0"/>
         <v>6</v>

--- a/Simulation Plan.xlsx
+++ b/Simulation Plan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20382"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c4e1f6e80555f8e/Documenten/Internship/Project/Shared folder/HVI/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{ACE36438-6A9D-4715-9F96-A37DCCD934F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EC9B51E0-8BEA-4164-9339-25E769AFB30B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B4B88-C0B3-42EF-8836-3E2DEAEF3187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="-108" windowWidth="22764" windowHeight="13176" xr2:uid="{81477174-054F-4866-A4D7-E995B2979BA1}"/>
+    <workbookView xWindow="390" yWindow="-105" windowWidth="22770" windowHeight="13170" xr2:uid="{81477174-054F-4866-A4D7-E995B2979BA1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,21 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
   <si>
     <t>Simulation Plan</t>
   </si>
@@ -69,9 +60,6 @@
     <t>comp</t>
   </si>
   <si>
-    <t>fine mesh</t>
-  </si>
-  <si>
     <t>notes</t>
   </si>
   <si>
@@ -85,6 +73,12 @@
   </si>
   <si>
     <t>need to change fibre direction</t>
+  </si>
+  <si>
+    <t>fine mesh, messed up fibres, iso</t>
+  </si>
+  <si>
+    <t>with good fibres</t>
   </si>
 </sst>
 </file>
@@ -108,7 +102,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,6 +112,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -143,10 +149,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,29 +471,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A9225-5312-4806-BDF3-A75C3706EF00}">
   <dimension ref="B3:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
     <col min="2" max="2" width="3" customWidth="1"/>
-    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
     <col min="4" max="4" width="11" customWidth="1"/>
-    <col min="5" max="5" width="13.6640625" customWidth="1"/>
-    <col min="6" max="6" width="13.5546875" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="46.109375" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="46.140625" customWidth="1"/>
     <col min="9" max="9" width="31" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
         <v>1</v>
@@ -506,10 +514,10 @@
         <v>8</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C6">
         <v>1</v>
       </c>
@@ -526,7 +534,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="3"/>
       <c r="C7">
         <f>C6+1</f>
         <v>2</v>
@@ -547,7 +556,8 @@
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="3"/>
       <c r="C8">
         <f t="shared" ref="C8:C11" si="0">C7+1</f>
         <v>3</v>
@@ -565,13 +575,14 @@
         <v>7</v>
       </c>
       <c r="H8" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="I8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="4"/>
       <c r="C9">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -589,10 +600,13 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C10">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -610,10 +624,10 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="C11">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -631,7 +645,7 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Simulation Plan.xlsx
+++ b/Simulation Plan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kayleigh\Documents\HVI share\HVI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A40B4B88-C0B3-42EF-8836-3E2DEAEF3187}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADC6F65E-5294-4564-9668-3923968269C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="-105" windowWidth="22770" windowHeight="13170" xr2:uid="{81477174-054F-4866-A4D7-E995B2979BA1}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="19">
   <si>
     <t>Simulation Plan</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>with good fibres</t>
+  </si>
+  <si>
+    <t>coarse mesh, messed up fibres</t>
   </si>
 </sst>
 </file>
@@ -102,7 +105,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -118,12 +121,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -154,7 +151,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -469,10 +466,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{256A9225-5312-4806-BDF3-A75C3706EF00}">
-  <dimension ref="B3:I11"/>
+  <dimension ref="B3:I12"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" zoomScale="91" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,9 +515,6 @@
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>1</v>
-      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -536,10 +530,6 @@
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" s="3"/>
-      <c r="C7">
-        <f>C6+1</f>
-        <v>2</v>
-      </c>
       <c r="D7">
         <v>2</v>
       </c>
@@ -558,10 +548,6 @@
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="3"/>
-      <c r="C8">
-        <f t="shared" ref="C8:C11" si="0">C7+1</f>
-        <v>3</v>
-      </c>
       <c r="D8">
         <v>2</v>
       </c>
@@ -582,11 +568,7 @@
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="4"/>
-      <c r="C9">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
+      <c r="B9" s="3"/>
       <c r="D9">
         <v>2</v>
       </c>
@@ -600,17 +582,11 @@
         <v>7</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
+      <c r="B10" s="4"/>
       <c r="D10">
         <v>2</v>
       </c>
@@ -624,14 +600,13 @@
         <v>7</v>
       </c>
       <c r="H10" t="s">
-        <v>13</v>
+        <v>12</v>
+      </c>
+      <c r="I10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
       <c r="D11">
         <v>2</v>
       </c>
@@ -645,6 +620,23 @@
         <v>7</v>
       </c>
       <c r="H11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>2</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H12" t="s">
         <v>14</v>
       </c>
     </row>
